--- a/test/data/xlsx/Packungen-2015.06.04.xlsx
+++ b/test/data/xlsx/Packungen-2015.06.04.xlsx
@@ -485,7 +485,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
